--- a/DASH_Non-E-Star-Clicker/NonEnergyStarDashClickerSheet.xlsx
+++ b/DASH_Non-E-Star-Clicker/NonEnergyStarDashClickerSheet.xlsx
@@ -340,10 +340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A241"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A162" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G183" sqref="G183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,76 +358,1201 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>71723</v>
+        <v>69244</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>71748</v>
+        <v>69837</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>70250</v>
+        <v>71625</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>70940</v>
+        <v>73770</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>70402</v>
+        <v>71808</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>71509</v>
+        <v>70394</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>66627</v>
+        <v>70398</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>73336</v>
+        <v>70400</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>70287</v>
+        <v>71511</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>72831</v>
+        <v>70873</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>71728</v>
+        <v>71028</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>71052</v>
+        <v>71238</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>70902</v>
+        <v>72467</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>70898</v>
+        <v>68999</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
+        <v>69291</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>69334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>69536</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>69817</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>70753</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>70785</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>70810</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>71134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>71135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>71172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>71726</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>71727</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>71870</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>71871</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>72471</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>72807</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>72808</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>72809</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>70231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>70696</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>70697</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>70699</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>70700</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>71722</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>71921</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>72184</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>72293</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>72355</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>72503</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>72832</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>72886</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>72887</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>72894</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>68958</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>69708</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>71231</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>69584</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>70061</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>70107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>70273</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>70406</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>71142</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>71674</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>71690</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>71705</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>72196</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>72257</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>72924</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>72925</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>73245</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>66867</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>69071</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>69196</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>69422</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>69775</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>70026</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>70225</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>70277</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>70408</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>70539</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>70708</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>71393</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>71394</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>71691</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>71872</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>73244</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>71149</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>71726</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>72503</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>72886</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>72887</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>69448</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>71514</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>71234</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>63917</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>69320</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>72062</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>68510</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>69330</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>66625</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>70114</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>70748</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>71242</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>72182</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>71694</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>71072</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>71073</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>71074</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>68819</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>73213</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>72548</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>71710</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>70546</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>72295</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>69295</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>70217</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>70285</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>70276</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>71287</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>72294</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>72580</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>72582</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>71629</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>69704</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>72291</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>72024</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>71969</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>71160</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>72033</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>71711</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>71398</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>72510</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>71968</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>71967</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>71972</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>73335</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>70551</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>72181</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>71719</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>72379</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>71066</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>70703</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>70551</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>71705</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>72505</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>74558</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>69330</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>67206</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>71500</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>73613</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>69447</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>70552</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>72964</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>72506</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>72572</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>70275</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>71089</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>70921</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>72501</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>72179</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>72377</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>68167</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>72290</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>68433</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>71628</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>60012</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>72801</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>71723</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>70749</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>71694</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>71721</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>72504</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>70751</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>69561</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>69560</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>72542</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>72543</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>71661</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>69506</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>69351</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>68114</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>68348</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>71093</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>70673</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>69990</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>71661</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>70383</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>71299</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>71500</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>68823</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>68824</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>70820</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>71519</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>72635</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>69834</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>72581</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>70631</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>71792</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>72502</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>71506</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>70704</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>70039</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>69570</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>70623</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>72103</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>72297</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>71331</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>72458</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>72460</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>70785</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>69158</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>71690</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>72472</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>67456</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>70707</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>69838</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>68410</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>67167</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>71071</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>70814</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>71173</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>73174</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>71730</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>71729</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>70695</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>71416</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>68534</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>69379</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>72296</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>71014</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>70750</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>71723</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>71748</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>70250</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>70940</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>70402</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>71509</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>66627</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>73336</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>70287</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>72831</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>71728</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>71052</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>70902</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>70898</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
         <v>71790</v>
       </c>
     </row>
